--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/答题卡制作识别/答题卡制作和识别方案/答题卡 批改模拟表.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/答题卡制作识别/答题卡制作和识别方案/答题卡 批改模拟表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\wenhuzha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段二\软件开发\答题卡制作识别\答题卡制作和识别方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10716"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7116"/>
   </bookViews>
   <sheets>
     <sheet name="试卷结构表" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="223">
   <si>
-    <t>从左到右，从上到下，面 - 块 - 0横向 1纵向</t>
-  </si>
-  <si>
     <t>大题</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Exam1</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
     <t>Qu102</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Pro106</t>
   </si>
   <si>
-    <t>1-1-1</t>
-  </si>
-  <si>
     <t>Qu107</t>
   </si>
   <si>
@@ -411,9 +402,6 @@
   </si>
   <si>
     <t>Pro121</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
   </si>
   <si>
     <t>Qu125</t>
@@ -841,19 +829,35 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>X轴 - Y轴 - 题目数 - 选项数 - 单选/多选</t>
+    <t>从左到右，从上到下，面 - 块 - 0横向 1纵向 - 单选/多选</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1-1-5-3-1</t>
+    <t>X轴 - Y轴 - 题目数 - 选项数</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2-1-5-4-2</t>
+    <t>1-1-0-1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1-1-1-3-1</t>
+    <t>1-1-5-3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-1-2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1-5-4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4-0-1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-1-3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +1533,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7C1B3C0F-B97E-4BBE-8F1A-92E78329D859}" diskRevisions="1" revisionId="17" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F148BFB8-3012-4F38-882B-F7C2125C19B7}" diskRevisions="1" revisionId="41" version="10">
   <header guid="{88B82BE6-D472-4E3E-B2F7-AA70403CC75D}" dateTime="2017-12-20T21:02:39" maxSheetId="3" userName="wenhuzhang" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1578,11 +1582,55 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{A73B08B3-8848-4B1D-857E-F592934DCFDF}" dateTime="2017-12-25T21:50:11" maxSheetId="3" userName="wenhuzhang" r:id="rId9" minRId="18" maxRId="39">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F148BFB8-3012-4F38-882B-F7C2125C19B7}" dateTime="2017-12-25T21:50:21" maxSheetId="3" userName="wenhuzhang" r:id="rId10" minRId="40" maxRId="41">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="40" sId="1" quotePrefix="1">
+    <oc r="O42" t="inlineStr">
+      <is>
+        <t>1-4-0</t>
+      </is>
+    </oc>
+    <nc r="O42" t="inlineStr">
+      <is>
+        <t>1-4-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="1">
+    <oc r="P42" t="inlineStr">
+      <is>
+        <t>1-1-1-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P42" t="inlineStr">
+      <is>
+        <t>1-1-1-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,7 +1864,309 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="18" sId="1">
+    <oc r="O16" t="inlineStr">
+      <is>
+        <t>从左到右，从上到下，面 - 块 - 0横向 1纵向</t>
+      </is>
+    </oc>
+    <nc r="O16" t="inlineStr">
+      <is>
+        <t>从左到右，从上到下，面 - 块 - 0横向 1纵向 - 单选/多选</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <oc r="P16" t="inlineStr">
+      <is>
+        <t>X轴 - Y轴 - 题目数 - 选项数 - 单选/多选</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P16" t="inlineStr">
+      <is>
+        <t>X轴 - Y轴 - 题目数 - 选项数</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1" quotePrefix="1">
+    <oc r="O19" t="inlineStr">
+      <is>
+        <t>1-1-0</t>
+      </is>
+    </oc>
+    <nc r="O19" t="inlineStr">
+      <is>
+        <t>1-1-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1" quotePrefix="1">
+    <oc r="O20" t="inlineStr">
+      <is>
+        <t>1-1-0</t>
+      </is>
+    </oc>
+    <nc r="O20" t="inlineStr">
+      <is>
+        <t>1-1-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1" quotePrefix="1">
+    <oc r="O21" t="inlineStr">
+      <is>
+        <t>1-1-0</t>
+      </is>
+    </oc>
+    <nc r="O21" t="inlineStr">
+      <is>
+        <t>1-1-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1" quotePrefix="1">
+    <oc r="O22" t="inlineStr">
+      <is>
+        <t>1-1-0</t>
+      </is>
+    </oc>
+    <nc r="O22" t="inlineStr">
+      <is>
+        <t>1-1-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1" quotePrefix="1">
+    <oc r="O23" t="inlineStr">
+      <is>
+        <t>1-1-0</t>
+      </is>
+    </oc>
+    <nc r="O23" t="inlineStr">
+      <is>
+        <t>1-1-0-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <oc r="P19" t="inlineStr">
+      <is>
+        <t>1-1-5-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P19" t="inlineStr">
+      <is>
+        <t>1-1-5-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <oc r="P20" t="inlineStr">
+      <is>
+        <t>1-1-5-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P20" t="inlineStr">
+      <is>
+        <t>1-1-5-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="P21" t="inlineStr">
+      <is>
+        <t>1-1-5-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P21" t="inlineStr">
+      <is>
+        <t>1-1-5-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <oc r="P22" t="inlineStr">
+      <is>
+        <t>1-1-5-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P22" t="inlineStr">
+      <is>
+        <t>1-1-5-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <oc r="P23" t="inlineStr">
+      <is>
+        <t>1-1-5-3-1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P23" t="inlineStr">
+      <is>
+        <t>1-1-5-3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1" quotePrefix="1">
+    <oc r="O24" t="inlineStr">
+      <is>
+        <t>1-1-1</t>
+      </is>
+    </oc>
+    <nc r="O24" t="inlineStr">
+      <is>
+        <t>1-1-1-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1" quotePrefix="1">
+    <oc r="O25" t="inlineStr">
+      <is>
+        <t>1-1-1</t>
+      </is>
+    </oc>
+    <nc r="O25" t="inlineStr">
+      <is>
+        <t>1-1-1-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1" quotePrefix="1">
+    <oc r="O26" t="inlineStr">
+      <is>
+        <t>1-1-1</t>
+      </is>
+    </oc>
+    <nc r="O26" t="inlineStr">
+      <is>
+        <t>1-1-1-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1" quotePrefix="1">
+    <oc r="O27" t="inlineStr">
+      <is>
+        <t>1-1-1</t>
+      </is>
+    </oc>
+    <nc r="O27" t="inlineStr">
+      <is>
+        <t>1-1-1-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="1" quotePrefix="1">
+    <oc r="O28" t="inlineStr">
+      <is>
+        <t>1-1-1</t>
+      </is>
+    </oc>
+    <nc r="O28" t="inlineStr">
+      <is>
+        <t>1-1-1-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="1">
+    <oc r="P24" t="inlineStr">
+      <is>
+        <t>2-1-5-4-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P24" t="inlineStr">
+      <is>
+        <t>2-1-5-4</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="1">
+    <oc r="P25" t="inlineStr">
+      <is>
+        <t>2-1-5-4-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P25" t="inlineStr">
+      <is>
+        <t>2-1-5-4</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="1">
+    <oc r="P26" t="inlineStr">
+      <is>
+        <t>2-1-5-4-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P26" t="inlineStr">
+      <is>
+        <t>2-1-5-4</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <oc r="P27" t="inlineStr">
+      <is>
+        <t>2-1-5-4-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P27" t="inlineStr">
+      <is>
+        <t>2-1-5-4</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1">
+    <oc r="P28" t="inlineStr">
+      <is>
+        <t>2-1-5-4-2</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="P28" t="inlineStr">
+      <is>
+        <t>2-1-5-4</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -2080,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E16:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="L26" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2102,85 +2452,85 @@
   <sheetData>
     <row r="16" spans="15:16">
       <c r="O16" s="41" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="20.399999999999999">
       <c r="F17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="H17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="I17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="J17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="K17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="L17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="M17" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="N17" s="42" t="s">
+      <c r="O17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="P17" s="42" t="s">
         <v>9</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="5:17" ht="20.399999999999999">
       <c r="F18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="H18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="I18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="J18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="M18" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="N18" s="42" t="s">
+      <c r="O18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="P18" s="42" t="s">
         <v>19</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="5:17">
       <c r="E19" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="41">
         <v>1</v>
@@ -2192,22 +2542,22 @@
         <v>1</v>
       </c>
       <c r="J19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="L19" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>24</v>
       </c>
       <c r="N19" s="41">
         <v>0</v>
       </c>
       <c r="O19" s="56" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="P19" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="5:17">
@@ -2218,22 +2568,22 @@
         <v>2</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" s="41">
         <v>0</v>
       </c>
       <c r="O20" s="56" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="P20" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="5:17">
@@ -2244,22 +2594,22 @@
         <v>3</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="41">
         <v>0</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="P21" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="5:17">
@@ -2270,22 +2620,22 @@
         <v>4</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" s="41">
         <v>0</v>
       </c>
       <c r="O22" s="56" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="P22" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q22"/>
     </row>
@@ -2297,22 +2647,22 @@
         <v>5</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" s="41">
         <v>0</v>
       </c>
       <c r="O23" s="56" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="P23" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="5:17">
@@ -2323,22 +2673,22 @@
         <v>6</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" s="41">
         <v>0</v>
       </c>
       <c r="O24" s="57" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="P24" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="5:17">
@@ -2349,22 +2699,22 @@
         <v>7</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="41">
         <v>0</v>
       </c>
       <c r="O25" s="57" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="P25" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="5:17">
@@ -2375,22 +2725,22 @@
         <v>8</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="41">
         <v>0</v>
       </c>
       <c r="O26" s="57" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="P26" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="5:17">
@@ -2401,22 +2751,22 @@
         <v>9</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="41">
         <v>0</v>
       </c>
       <c r="O27" s="57" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="5:17">
@@ -2427,22 +2777,22 @@
         <v>10</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" s="41">
         <v>0</v>
       </c>
       <c r="O28" s="57" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="P28" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="5:17">
@@ -2453,13 +2803,13 @@
         <v>11</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L29" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" s="41">
         <v>0</v>
@@ -2474,13 +2824,13 @@
         <v>12</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" s="41">
         <v>0</v>
@@ -2495,13 +2845,13 @@
         <v>13</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L31" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" s="41">
         <v>0</v>
@@ -2516,13 +2866,13 @@
         <v>14</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K32" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L32" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" s="41">
         <v>0</v>
@@ -2537,13 +2887,13 @@
         <v>15</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33" s="46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" s="41">
         <v>0</v>
@@ -2558,13 +2908,13 @@
         <v>16</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" s="41">
         <v>0</v>
@@ -2579,13 +2929,13 @@
         <v>17</v>
       </c>
       <c r="J35" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N35" s="41">
         <v>0</v>
@@ -2600,13 +2950,13 @@
         <v>18</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" s="41">
         <v>0</v>
@@ -2615,7 +2965,7 @@
     </row>
     <row r="37" spans="5:16">
       <c r="E37" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F37" s="41">
         <v>2</v>
@@ -2624,22 +2974,22 @@
         <v>19</v>
       </c>
       <c r="I37" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37" s="41">
         <v>1</v>
       </c>
       <c r="O37" s="58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="5:16">
@@ -2647,22 +2997,22 @@
         <v>20</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38" s="41">
         <v>1</v>
       </c>
       <c r="O38" s="58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="5:16">
@@ -2670,22 +3020,22 @@
         <v>21</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39" s="41">
         <v>1</v>
       </c>
       <c r="O39" s="58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="5:16">
@@ -2693,22 +3043,22 @@
         <v>22</v>
       </c>
       <c r="I40" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J40" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K40" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40" s="41">
         <v>1</v>
       </c>
       <c r="O40" s="59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="5:16">
@@ -2716,27 +3066,27 @@
         <v>23</v>
       </c>
       <c r="I41" s="49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K41" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L41" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41" s="41">
         <v>1</v>
       </c>
       <c r="O41" s="59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="5:16" ht="17.399999999999999">
       <c r="E42" s="43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F42" s="41">
         <v>3</v>
@@ -2751,19 +3101,19 @@
         <v>24</v>
       </c>
       <c r="J42" s="50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L42" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42" s="55">
         <v>0</v>
       </c>
       <c r="O42" s="60" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="P42" s="55" t="s">
         <v>222</v>
@@ -2780,19 +3130,19 @@
         <v>25</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L43" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43" s="41">
         <v>1</v>
       </c>
       <c r="O43" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:16" ht="17.399999999999999">
@@ -2806,24 +3156,24 @@
         <v>26</v>
       </c>
       <c r="J44" s="50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44" s="41">
         <v>1</v>
       </c>
       <c r="O44" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="5:16">
       <c r="E45" s="43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F45" s="41">
         <v>4</v>
@@ -2835,22 +3185,22 @@
         <v>27</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J45" s="41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45" s="41">
         <v>1</v>
       </c>
       <c r="O45" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -2861,22 +3211,22 @@
         <v>27</v>
       </c>
       <c r="I46" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J46" s="41" t="s">
-        <v>86</v>
-      </c>
       <c r="K46" s="41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L46" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N46" s="41">
         <v>1</v>
       </c>
       <c r="O46" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="5:16">
@@ -2887,22 +3237,22 @@
         <v>27</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J47" s="41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L47" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" s="41">
         <v>1</v>
       </c>
       <c r="O47" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2944,547 +3294,547 @@
   <sheetData>
     <row r="1" spans="2:8" ht="20.399999999999999">
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="20.399999999999999">
       <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.399999999999999">
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="38.4">
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11">
         <v>0</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" s="2" customFormat="1">
       <c r="B15" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" s="2" customFormat="1" ht="38.4">
       <c r="B16" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.399999999999999">
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.399999999999999">
       <c r="B21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25" s="14">
         <v>0</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E26" s="14">
         <v>0</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="14">
         <v>0</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H27" s="14"/>
     </row>
     <row r="30" spans="2:8" ht="20.399999999999999">
       <c r="B30" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="20.399999999999999">
       <c r="B31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19"/>
       <c r="B33" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="14">
         <v>0</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E35" s="14">
         <v>0</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H35" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="20.399999999999999">
       <c r="B38" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -3494,73 +3844,73 @@
     </row>
     <row r="39" spans="1:8" ht="20.399999999999999">
       <c r="B39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -3568,16 +3918,16 @@
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="B43" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -3585,636 +3935,636 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H48" s="20"/>
     </row>
     <row r="49" spans="2:8" s="5" customFormat="1">
       <c r="B49" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" s="26">
         <v>0</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H49" s="27"/>
     </row>
     <row r="50" spans="2:8" s="4" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E50" s="23">
         <v>0</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="2:8" s="6" customFormat="1">
       <c r="B51" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H51" s="29"/>
     </row>
     <row r="52" spans="2:8" s="5" customFormat="1">
       <c r="B52" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H52" s="27"/>
     </row>
     <row r="53" spans="2:8" s="5" customFormat="1">
       <c r="B53" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H53" s="27"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H54" s="20"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H55" s="30"/>
     </row>
     <row r="56" spans="2:8" s="6" customFormat="1">
       <c r="B56" s="31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H56" s="33"/>
     </row>
     <row r="57" spans="2:8" s="6" customFormat="1">
       <c r="B57" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H57" s="29"/>
     </row>
     <row r="60" spans="2:8" ht="20.399999999999999">
       <c r="B60" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="20.399999999999999">
       <c r="B61" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="G61" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="H61" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
       <c r="G62" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H62" s="36"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H63" s="36"/>
     </row>
     <row r="64" spans="2:8" s="7" customFormat="1">
       <c r="B64" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H64" s="37"/>
     </row>
     <row r="65" spans="2:8" s="6" customFormat="1">
       <c r="B65" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H65" s="31"/>
     </row>
     <row r="66" spans="2:8" s="5" customFormat="1">
       <c r="B66" s="38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H66" s="40"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H67" s="36"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H68" s="36"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H69" s="36"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E70" s="14">
         <v>1</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="40.799999999999997">
       <c r="B73" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="20.399999999999999">
       <c r="B74" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="G74" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="2:8" s="6" customFormat="1">
       <c r="B75" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
       <c r="G75" s="31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H75" s="31"/>
     </row>
     <row r="76" spans="2:8" s="6" customFormat="1">
       <c r="B76" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E76" s="31"/>
       <c r="F76" s="31"/>
       <c r="G76" s="31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H76" s="31"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H77" s="36"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H78" s="36"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
       <c r="G79" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H79" s="36"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
       <c r="G80" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H80" s="36"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
       <c r="G81" s="36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H81" s="36"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H82" s="36"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E83" s="14">
         <v>1</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
